--- a/APM files/128788863/Export Results/128788863 EXPORT 1 RomeType&RatePlan template_result.xlsx
+++ b/APM files/128788863/Export Results/128788863 EXPORT 1 RomeType&RatePlan template_result.xlsx
@@ -110,7 +110,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>38231185</t>
+          <t>37833667</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -120,14 +120,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Warning - No match found or conflicting filter rules for hotel 38231185;</t>
+          <t>Warning - No match found or conflicting filter rules for hotel 37833667;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>38161830</t>
+          <t>38161847</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -137,14 +137,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Warning - No match found or conflicting filter rules for hotel 38161830;</t>
+          <t>Warning - No match found or conflicting filter rules for hotel 38161847;</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>38161847</t>
+          <t>38161830</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -154,14 +154,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Warning - No match found or conflicting filter rules for hotel 38161847;</t>
+          <t>Warning - No match found or conflicting filter rules for hotel 38161830;</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>37833667</t>
+          <t>38231185</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -171,7 +171,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Warning - No match found or conflicting filter rules for hotel 37833667;</t>
+          <t>Warning - No match found or conflicting filter rules for hotel 38231185;</t>
         </is>
       </c>
     </row>
